--- a/src/analysis_examples/circadb/results_lomb/cosinor_10523579_arhgap24_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10523579_arhgap24_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.19787393908116233, 0.3231019011263093]</t>
+          <t>[0.1959760368457788, 0.3249998033616929]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.294765377719443e-08</v>
+        <v>3.754923771914775e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.294765377719443e-08</v>
+        <v>3.754923771914775e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3916015310480647, 0.45673353008555506]</t>
+          <t>[0.39159803340047517, 0.4567370277331446]</t>
         </is>
       </c>
       <c r="U2" t="n">
